--- a/tools/businessdoc/数据库表 .xlsx
+++ b/tools/businessdoc/数据库表 .xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="15" r:id="rId1"/>
     <sheet name="招聘管理-求职者信息" sheetId="1" r:id="rId2"/>
-    <sheet name="招聘管理-面试官信息" sheetId="3" r:id="rId3"/>
-    <sheet name="招聘管理-题库" sheetId="6" r:id="rId4"/>
-    <sheet name="公共-角色表" sheetId="7" r:id="rId5"/>
-    <sheet name="公共-用户登陆表" sheetId="8" r:id="rId6"/>
-    <sheet name="公共-用户-角色表" sheetId="10" r:id="rId7"/>
-    <sheet name="公共-菜单表" sheetId="11" r:id="rId8"/>
-    <sheet name="公共-业务表" sheetId="12" r:id="rId9"/>
-    <sheet name="公共-菜单表-角色" sheetId="13" r:id="rId10"/>
-    <sheet name="公共-业务表-角色" sheetId="14" r:id="rId11"/>
-    <sheet name="公共-用户信息表" sheetId="9" r:id="rId12"/>
-    <sheet name="公共-公司部门" sheetId="4" r:id="rId13"/>
-    <sheet name="公共-公司岗位职称" sheetId="5" r:id="rId14"/>
-    <sheet name="模板" sheetId="2" r:id="rId15"/>
+    <sheet name="招聘管理-面试结果" sheetId="16" r:id="rId3"/>
+    <sheet name="招聘管理-面试官信息" sheetId="3" r:id="rId4"/>
+    <sheet name="招聘管理-题库" sheetId="6" r:id="rId5"/>
+    <sheet name="公共-角色表" sheetId="7" r:id="rId6"/>
+    <sheet name="公共-用户登陆表" sheetId="8" r:id="rId7"/>
+    <sheet name="公共-用户-角色表" sheetId="10" r:id="rId8"/>
+    <sheet name="公共-菜单表" sheetId="11" r:id="rId9"/>
+    <sheet name="公共-业务表" sheetId="12" r:id="rId10"/>
+    <sheet name="公共-菜单表-角色" sheetId="13" r:id="rId11"/>
+    <sheet name="公共-业务表-角色" sheetId="14" r:id="rId12"/>
+    <sheet name="公共-用户信息表" sheetId="9" r:id="rId13"/>
+    <sheet name="公共-公司部门" sheetId="4" r:id="rId14"/>
+    <sheet name="公共-公司岗位职称" sheetId="5" r:id="rId15"/>
+    <sheet name="模板" sheetId="2" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="285">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,7 +140,960 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面试题编号</t>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入数据时的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试者简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘人员上传的应聘者简历后，存储的uri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试结果描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一轮面试均可添加面试结果描述，且在原信息基础上进行追加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADUATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDUCATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGIST_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESUME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位键值对，在数据库表中维护，或者在js中维护，{"JOB01":"项目经理","JOB02":"JAVA开发工程师","JOB03":"测试工程师","JOB04":"UI设计","JOB05":"项目助理","JOB06":"配置管理","JOB07":"终端工程师","JOB08":"C工程师","JOB09":"C#工程师"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增长、主键、定长，初始值为10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试官职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试官所属部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"B":"小学","C":"中学","D":"高中","E":"大专","F":"本科","G":"硕士","H":"博士","Z":"其他"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试官姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHONENO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职者电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职者邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用于推送面试信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可参与面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1":"可以参与面试","2":"出差中","3":"休假中","4":"非在职"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从公司岗位职称表中获取具体的键值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增长、主键、定长，初始值为1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPARTINDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEPARTNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门简写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUPERIOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOBINDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOBNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位简写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST_DUTIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLENAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLEDESCRIBE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在管理端配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_CREATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表中的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表中的id对应的创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USER表中的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ROLE表中的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以一对多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSSINESS_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_BUSSINESS表中的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MENU表中的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增长、主键、定长，初始值为101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTEID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIZ_BLOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应导航栏功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HREF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPREAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARENTNOTEID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TARGET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开窗口的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级菜单资源ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(63)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有父级菜单，默认填入0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_blank代表在新的窗口中打开url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照一定的规则定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>招聘管理-求职者信息</t>
+  </si>
+  <si>
+    <t>招聘管理-面试官信息</t>
+  </si>
+  <si>
+    <t>招聘管理-题库</t>
+  </si>
+  <si>
+    <t>公共-角色表</t>
+  </si>
+  <si>
+    <t>公共-用户登陆表</t>
+  </si>
+  <si>
+    <t>公共-用户-角色表</t>
+  </si>
+  <si>
+    <t>公共-菜单表</t>
+  </si>
+  <si>
+    <t>公共-业务表</t>
+  </si>
+  <si>
+    <t>公共-菜单表-角色</t>
+  </si>
+  <si>
+    <t>公共-业务表-角色</t>
+  </si>
+  <si>
+    <t>公共-用户信息表</t>
+  </si>
+  <si>
+    <t>公共-公司部门</t>
+  </si>
+  <si>
+    <t>公共-公司岗位职称</t>
+  </si>
+  <si>
+    <t>模板</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘管理-求职者信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-用户登陆表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_TABLENAME</t>
+  </si>
+  <si>
+    <t>T_TABLENAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-菜单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-菜单表-角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘管理-面试官信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_JOBSEEKER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_INTERVIEWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_QUESTBANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USER_ROLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：（主要对角色进行一些操作控制，比如删除或查看敏感信息等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_BUSSINESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MENU_ROLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USERINFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_DEPARTMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_JOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-业务表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回目录</t>
+  </si>
+  <si>
+    <t>公共-用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-公司岗位职称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_QUESTBANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_JOBSEEKER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_INTERVIEWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_BUSSINESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-业务表-角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USER_ROLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-公司部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-用户-角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_BUSSINESS_ROLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增长、主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{“T1”:"选择题",
+"T2":"填空题",
+"T3":"解答题",
+"T4":"其他"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++/JVA/PYTHON/SQL等,对应关系后续给出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIFFICULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难易程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0":"简单",
+"1":"一般",
+"2":"中等",
+"3":"困难"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANSWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富文本编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新插入时，填如插入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LASTUPDATE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后更新人员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LASTUPDATE_ACCOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新插入时，填入当前操作人员id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：启用，1：未启用，2：关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0为可用，1未不可用，2未待验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于关联用户登陆表，有用户信息，但不一定有账号，有账号，一定有用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_DEPARTMENT中的id，根据此id可以获取上级部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,在职，1，离职，若为1，需要清空USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHONENO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M:男，F：女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求职者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试官id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOBSEEKER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERVIEWER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始面试时，生成的题目编号集合，各题用逗号隔开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANSWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试者答案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,560 +1102,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入数据时的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试官在出题时，自动生成的编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试者简历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘人员上传的应聘者简历后，存储的uri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试结果描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一轮面试均可添加面试结果描述，且在原信息基础上进行追加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADUATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDUCATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REGIST_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIBNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESUME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BACK1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位键值对，在数据库表中维护，或者在js中维护，{"JOB01":"项目经理","JOB02":"JAVA开发工程师","JOB03":"测试工程师","JOB04":"UI设计","JOB05":"项目助理","JOB06":"配置管理","JOB07":"终端工程师","JOB08":"C工程师","JOB09":"C#工程师"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增长、主键、定长，初始值为10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试官职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试官所属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"B":"小学","C":"中学","D":"高中","E":"大专","F":"本科","G":"硕士","H":"博士","Z":"其他"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试官姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHONENO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求职者电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求职者邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可用于推送面试信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可参与面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"1":"可以参与面试","2":"出差中","3":"休假中","4":"非在职"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEPARTMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从公司岗位职称表中获取具体的键值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增长、主键、定长，初始值为1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEPARTINDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEPARTNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门简写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级部门ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUPERIOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOBINDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOBNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位简写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST_DUTIES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位职责</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLENAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLEDESCRIBE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BACK1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可在管理端配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USERNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BACK1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密后</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_CREATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表中的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于关联用户登陆表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表中的id对应的创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USER表中的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ROLE表中的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以一对多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSSINESS_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_BUSSINESS表中的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MENU_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MENU表中的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增长、主键、定长，初始值为101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOTEID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIZ_BLOCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TITLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应导航栏功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HREF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPREAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARENTNOTEID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TARGET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开窗口的方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父级菜单资源ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BACK1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(63)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果没有父级菜单，默认填入0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_blank代表在新的窗口中打开url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照一定的规则定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INDEX</t>
-  </si>
-  <si>
-    <t>招聘管理-求职者信息</t>
-  </si>
-  <si>
-    <t>招聘管理-面试官信息</t>
+    <t>面试者提交答案时，更新此部分，key：value,题目：答案，用逗号隔开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUESTIONLIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试官备注信息1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事备注信息2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SEEKRESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试结果</t>
+  </si>
+  <si>
+    <t>面试结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SEEKRESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>招聘管理-题库</t>
-  </si>
-  <si>
-    <t>公共-角色表</t>
-  </si>
-  <si>
-    <t>公共-用户登陆表</t>
-  </si>
-  <si>
-    <t>公共-用户-角色表</t>
-  </si>
-  <si>
-    <t>公共-菜单表</t>
-  </si>
-  <si>
-    <t>公共-业务表</t>
-  </si>
-  <si>
-    <t>公共-菜单表-角色</t>
-  </si>
-  <si>
-    <t>公共-业务表-角色</t>
-  </si>
-  <si>
-    <t>公共-用户信息表</t>
-  </si>
-  <si>
-    <t>公共-公司部门</t>
-  </si>
-  <si>
-    <t>公共-公司岗位职称</t>
-  </si>
-  <si>
-    <t>模板</t>
-  </si>
-  <si>
-    <t>INDEX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘管理-求职者信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-用户登陆表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TABLENAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘管理-面试官信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_JOBSEEKER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_INTERVIEWER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_QUESTBANK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -709,39 +1145,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USER_ROLES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名：（主要对角色进行一些操作控制，比如删除或查看敏感信息等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_BUSSINESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_MENU_ROLES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>：T_BUSSINESS_ROLES</t>
+    <t>T_BUSSINESS_ROLES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -749,130 +1157,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_DEPARTMENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>T_JOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_JOBSEEKER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-业务表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_BUSSINESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USERINFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_TABLENAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回目录</t>
-  </si>
-  <si>
-    <t>公共-业务表-角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-公司部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USER_ROLES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_DEPARTMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-公司岗位职称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-菜单表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MENU_ROLES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-用户信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_JOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_INTERVIEWER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_QUESTBANK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>：T_BUSSINESS_ROLES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘管理-题库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-菜单表-角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-用户-角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -935,7 +1224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -956,6 +1245,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1000,24 +1300,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1026,8 +1324,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1385,9 +1692,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1398,211 +1707,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>191</v>
+      <c r="A1" s="12" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="12" t="s">
-        <v>147</v>
+      <c r="D4" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>148</v>
+        <v>191</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>149</v>
+        <v>277</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>150</v>
+        <v>192</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>151</v>
+        <v>187</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>152</v>
+        <v>279</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>153</v>
+        <v>189</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>154</v>
+        <v>196</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>155</v>
+        <v>193</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>156</v>
+        <v>194</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>157</v>
+        <v>280</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>158</v>
+        <v>281</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>159</v>
+        <v>282</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>160</v>
+        <v>283</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>161</v>
+        <v>284</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1613,19 +1933,20 @@
     <hyperlink ref="A1" location="'INDEX'!a1" display="返回目录"/>
     <hyperlink ref="D4" location="'INDEX'!a1" display="INDEX"/>
     <hyperlink ref="D5" location="'招聘管理-求职者信息'!a1" display="招聘管理-求职者信息"/>
-    <hyperlink ref="D6" location="'招聘管理-面试官信息'!a1" display="招聘管理-面试官信息"/>
-    <hyperlink ref="D7" location="'招聘管理-题库'!a1" display="招聘管理-题库"/>
-    <hyperlink ref="D8" location="'公共-角色表'!a1" display="公共-角色表"/>
-    <hyperlink ref="D9" location="'公共-用户登陆表'!a1" display="公共-用户登陆表"/>
-    <hyperlink ref="D10" location="'公共-用户-角色表'!a1" display="公共-用户-角色表"/>
-    <hyperlink ref="D11" location="'公共-菜单表'!a1" display="公共-菜单表"/>
-    <hyperlink ref="D12" location="'公共-业务表'!a1" display="公共-业务表"/>
-    <hyperlink ref="D13" location="'公共-菜单表-角色'!a1" display="公共-菜单表-角色"/>
-    <hyperlink ref="D14" location="'公共-业务表-角色'!a1" display="公共-业务表-角色"/>
-    <hyperlink ref="D15" location="'公共-用户信息表'!a1" display="公共-用户信息表"/>
-    <hyperlink ref="D16" location="'公共-公司部门'!a1" display="公共-公司部门"/>
-    <hyperlink ref="D17" location="'公共-公司岗位职称'!a1" display="公共-公司岗位职称"/>
-    <hyperlink ref="D18" location="'模板'!a1" display="模板"/>
+    <hyperlink ref="D6" location="'面试结果'!a1" display="面试结果"/>
+    <hyperlink ref="D7" location="'招聘管理-面试官信息'!a1" display="招聘管理-面试官信息"/>
+    <hyperlink ref="D8" location="'招聘管理-题库'!a1" display="招聘管理-题库"/>
+    <hyperlink ref="D9" location="'公共-角色表'!a1" display="公共-角色表"/>
+    <hyperlink ref="D10" location="'公共-用户登陆表'!a1" display="公共-用户登陆表"/>
+    <hyperlink ref="D11" location="'公共-用户-角色表'!a1" display="公共-用户-角色表"/>
+    <hyperlink ref="D12" location="'公共-菜单表'!a1" display="公共-菜单表"/>
+    <hyperlink ref="D13" location="'公共-业务表'!a1" display="公共-业务表"/>
+    <hyperlink ref="D14" location="'公共-菜单表-角色'!a1" display="公共-菜单表-角色"/>
+    <hyperlink ref="D15" location="'公共-业务表-角色'!a1" display="公共-业务表-角色"/>
+    <hyperlink ref="D16" location="'公共-用户信息表'!a1" display="公共-用户信息表"/>
+    <hyperlink ref="D17" location="'公共-公司部门'!a1" display="公共-公司部门"/>
+    <hyperlink ref="D18" location="'公共-公司岗位职称'!a1" display="公共-公司岗位职称"/>
+    <hyperlink ref="D19" location="'模板'!a1" display="模板"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1664,6 +1985,104 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'INDEX'!a1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1678,20 +2097,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>196</v>
+      <c r="A1" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -1718,133 +2137,33 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'INDEX'!a1" display="返回目录"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="27.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1862,36 +2181,34 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:G7"/>
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="33.75" customWidth="1"/>
+    <col min="5" max="5" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>194</v>
+      <c r="A1" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -1918,63 +2235,35 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1990,36 +2279,36 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:G8"/>
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="33.125" customWidth="1"/>
+    <col min="5" max="5" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>194</v>
+      <c r="A1" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -2058,74 +2347,156 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1"/>
+      <c r="A8" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" t="s">
+        <v>220</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2141,11 +2512,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet14"/>
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2153,24 +2524,24 @@
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="30.875" customWidth="1"/>
+    <col min="5" max="5" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>196</v>
+      <c r="A1" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -2209,70 +2580,72 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2290,11 +2663,158 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="30.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'INDEX'!a1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2306,20 +2826,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>196</v>
+      <c r="A1" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -2389,9 +2909,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2402,20 +2924,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>196</v>
+      <c r="A1" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2500,64 +3022,64 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -2566,120 +3088,69 @@
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="1"/>
+      <c r="E15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2696,36 +3167,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>196</v>
+      <c r="A1" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2752,133 +3222,142 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>259</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>270</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>263</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>266</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>267</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>64</v>
+      <c r="E9" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2894,11 +3373,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:G7"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2906,24 +3385,24 @@
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>194</v>
+      <c r="A1" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -2952,31 +3431,133 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2991,6 +3572,237 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'INDEX'!a1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G7"/>
@@ -3006,20 +3818,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>191</v>
+      <c r="A1" s="12" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -3058,55 +3870,55 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -3123,12 +3935,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3139,20 +3953,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>194</v>
+      <c r="A1" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -3191,57 +4005,74 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3255,7 +4086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G5"/>
@@ -3273,20 +4104,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>196</v>
+      <c r="A1" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -3313,33 +4144,33 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -3355,7 +4186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G13"/>
@@ -3373,20 +4204,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>194</v>
+      <c r="A1" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
       <c r="G2" t="s">
         <v>9</v>
       </c>
@@ -3425,249 +4256,151 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'INDEX'!a1" display="返回目录"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="27.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/tools/businessdoc/数据库表 .xlsx
+++ b/tools/businessdoc/数据库表 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="15" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="286">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,152 +666,165 @@
   </si>
   <si>
     <t>T_TABLENAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_JOBSEEKER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_INTERVIEWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_QUESTBANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USER_ROLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：（主要对角色进行一些操作控制，比如删除或查看敏感信息等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_BUSSINESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MENU_ROLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USERINFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_DEPARTMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_JOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-业务表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回目录</t>
+  </si>
+  <si>
+    <t>公共-业务表-角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-公司部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_DEPARTMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-公司岗位职称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_JOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-用户-角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_USER_ROLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘管理-面试官信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_INTERVIEWER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MENU_ROLES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_QUESTBANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_BUSSINESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>T_TABLENAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>招聘管理-题库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>公共-菜单表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公共-菜单表-角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘管理-面试官信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_JOBSEEKER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_INTERVIEWER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_QUESTBANK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USER_ROLES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名：（主要对角色进行一些操作控制，比如删除或查看敏感信息等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_BUSSINESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MENU_ROLES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USERINFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_DEPARTMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_JOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-业务表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回目录</t>
-  </si>
-  <si>
-    <t>公共-用户信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-公司岗位职称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_QUESTBANK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_JOBSEEKER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_INTERVIEWER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_MENU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_BUSSINESS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-业务表-角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_USER_ROLES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-公司部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-用户-角色表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1126,42 +1139,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面试结果</t>
-  </si>
-  <si>
-    <t>面试结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_SEEKRESULT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>招聘管理-题库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_ROLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_MENU_ROLES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_BUSSINESS_ROLES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>T_JOBSEEKER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘管理-面试结果</t>
+  </si>
+  <si>
+    <t>招聘管理-面试结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_MENU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T_USERINFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_DEPARTMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_JOB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1694,8 +1699,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1708,12 +1713,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1736,7 +1741,7 @@
         <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>143</v>
@@ -1746,20 +1751,20 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>192</v>
@@ -1772,10 +1777,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>145</v>
@@ -1785,7 +1790,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>279</v>
@@ -1801,7 +1806,7 @@
         <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>147</v>
@@ -1811,10 +1816,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>148</v>
@@ -1824,10 +1829,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>149</v>
@@ -1837,10 +1842,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>150</v>
@@ -1850,10 +1855,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>151</v>
@@ -1863,10 +1868,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>152</v>
@@ -1876,10 +1881,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>153</v>
@@ -1889,10 +1894,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>154</v>
@@ -1902,10 +1907,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>155</v>
@@ -1915,10 +1920,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>156</v>
@@ -1933,7 +1938,7 @@
     <hyperlink ref="A1" location="'INDEX'!a1" display="返回目录"/>
     <hyperlink ref="D4" location="'INDEX'!a1" display="INDEX"/>
     <hyperlink ref="D5" location="'招聘管理-求职者信息'!a1" display="招聘管理-求职者信息"/>
-    <hyperlink ref="D6" location="'面试结果'!a1" display="面试结果"/>
+    <hyperlink ref="D6" location="'招聘管理-面试结果'!a1" display="招聘管理-面试结果"/>
     <hyperlink ref="D7" location="'招聘管理-面试官信息'!a1" display="招聘管理-面试官信息"/>
     <hyperlink ref="D8" location="'招聘管理-题库'!a1" display="招聘管理-题库"/>
     <hyperlink ref="D9" location="'公共-角色表'!a1" display="公共-角色表"/>
@@ -2002,15 +2007,15 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -2098,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2106,7 +2111,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -2201,10 +2206,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -2304,7 +2309,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -2364,7 +2369,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2390,112 +2395,112 @@
         <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" t="s">
         <v>223</v>
-      </c>
-      <c r="C14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2534,10 +2539,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -2678,7 +2683,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2686,7 +2691,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -2827,7 +2832,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2835,7 +2840,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -2925,7 +2930,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2933,7 +2938,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -3169,7 +3174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3181,7 +3186,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3189,7 +3194,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -3233,13 +3238,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>74</v>
@@ -3248,10 +3253,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>104</v>
@@ -3263,36 +3268,36 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -3309,7 +3314,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -3331,13 +3336,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -3346,13 +3351,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
@@ -3390,7 +3395,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3398,7 +3403,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -3595,7 +3600,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -3638,155 +3643,155 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -3819,7 +3824,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3827,7 +3832,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -3962,7 +3967,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -4044,19 +4049,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4105,7 +4110,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4113,7 +4118,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -4210,10 +4215,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>

--- a/tools/businessdoc/数据库表 .xlsx
+++ b/tools/businessdoc/数据库表 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="15" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="290">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1167,6 +1167,22 @@
   </si>
   <si>
     <t>T_USERINFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：随时，1：一周，2：一个月，3:2个月，4：其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOINDAY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1699,8 +1715,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2914,10 +2930,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3078,84 +3094,99 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3174,7 +3205,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
